--- a/data/zh-cn/events.xlsx
+++ b/data/zh-cn/events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\lifeRestartLatest\data\zh-cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A59F50-01FA-4FDD-9E21-6EBE963EA534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCA06EA-4BA0-408F-BB09-D85D8525CDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="547" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="717">
   <si>
     <t>$id</t>
   </si>
@@ -2196,28 +2196,46 @@
     <t>EVT?[10195]</t>
   </si>
   <si>
-    <t>INT&gt;19:10122</t>
-  </si>
-  <si>
-    <t>INT&lt;60:10374</t>
-  </si>
-  <si>
-    <t>INT&gt;59:10172</t>
-  </si>
-  <si>
-    <t>你在闭关突破的时候走火入魔，身体虚弱，命不久矣。</t>
-  </si>
-  <si>
-    <t>你死在了求道路上。</t>
-  </si>
-  <si>
-    <t>INT&lt;15:10374</t>
-  </si>
-  <si>
-    <t>INT&lt;30:10374</t>
-  </si>
-  <si>
-    <t>INT&gt;29:10146</t>
+    <t>EVT?[10121]&amp;(INT&gt;12|CHR&gt;12|STR&gt;12|MNY&gt;12)</t>
+  </si>
+  <si>
+    <t>(INT&lt;15&amp;CHR&lt;15&amp;STR&lt;15&amp;MNY&lt;15):10374</t>
+  </si>
+  <si>
+    <t>(INT&gt;14|CHR&gt;14|STR&gt;14|MNY&gt;14):10122</t>
+  </si>
+  <si>
+    <t>你突破失败，但没放弃，决定继续求道。</t>
+  </si>
+  <si>
+    <t>你突破失败，自知天资不足，决定安享余生。</t>
+  </si>
+  <si>
+    <t>SPR&gt;9:10391</t>
+  </si>
+  <si>
+    <t>SPR&lt;10:10392</t>
+  </si>
+  <si>
+    <t>EVT?[10145]&amp;(INT&gt;25|CHR&gt;25|STR&gt;25|MNY&gt;25)</t>
+  </si>
+  <si>
+    <t>(INT&lt;30&amp;CHR&lt;30&amp;STR&lt;30&amp;MNY&lt;30):10374</t>
+  </si>
+  <si>
+    <t>(INT&gt;29|CHR&gt;29|STR&gt;29|MNY&gt;29):10146</t>
+  </si>
+  <si>
+    <t>EVT?[10171]&amp;(INT&gt;55|CHR&gt;55|STR&gt;55|MNY&gt;55)</t>
+  </si>
+  <si>
+    <t>(INT&lt;60&amp;CHR&lt;60&amp;STR&lt;60&amp;MNY&lt;60):10374</t>
+  </si>
+  <si>
+    <t>(INT&gt;59|CHR&gt;59|STR&gt;59|MNY&gt;59):10172</t>
+  </si>
+  <si>
+    <t>你在闭关突破的时候走火入魔，身体虚弱。</t>
   </si>
 </sst>
 </file>
@@ -2755,10 +2773,10 @@
   <dimension ref="A1:R601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P375" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B383" sqref="B383:Q385"/>
+      <selection pane="bottomRight" activeCell="N128" sqref="N128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
@@ -6695,16 +6713,16 @@
       <c r="K126" s="11"/>
       <c r="L126" s="11"/>
       <c r="M126" s="16" t="s">
-        <v>51</v>
+        <v>703</v>
       </c>
       <c r="N126" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O126" s="17" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="P126" s="17" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="Q126" s="20"/>
       <c r="R126" s="20"/>
@@ -7501,16 +7519,16 @@
       <c r="K150" s="11"/>
       <c r="L150" s="11"/>
       <c r="M150" s="16" t="s">
-        <v>313</v>
+        <v>710</v>
       </c>
       <c r="N150" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O150" s="17" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="P150" s="17" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="Q150" s="20"/>
       <c r="R150" s="20"/>
@@ -8369,16 +8387,16 @@
       <c r="K176" s="11"/>
       <c r="L176" s="11"/>
       <c r="M176" s="16" t="s">
-        <v>347</v>
+        <v>713</v>
       </c>
       <c r="N176" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O176" s="17" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="P176" s="17" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
@@ -14012,28 +14030,32 @@
         <v>10374</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="C377" s="7"/>
-      <c r="D377" s="8" t="s">
-        <v>707</v>
-      </c>
+      <c r="D377" s="8"/>
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
-      <c r="G377" s="11"/>
+      <c r="G377" s="11">
+        <v>-2</v>
+      </c>
       <c r="H377" s="11"/>
-      <c r="I377" s="11"/>
-      <c r="J377" s="11">
-        <v>-1</v>
-      </c>
+      <c r="I377" s="11">
+        <v>-2</v>
+      </c>
+      <c r="J377" s="11"/>
       <c r="K377" s="11"/>
       <c r="L377" s="11">
         <v>1</v>
       </c>
       <c r="M377" s="16"/>
       <c r="N377" s="16"/>
-      <c r="O377" s="17"/>
-      <c r="P377" s="17"/>
+      <c r="O377" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="P377" s="17" t="s">
+        <v>708</v>
+      </c>
       <c r="Q377" s="20"/>
       <c r="R377" s="20"/>
     </row>
@@ -14529,7 +14551,9 @@
       <c r="A394" s="7">
         <v>10391</v>
       </c>
-      <c r="B394" s="7"/>
+      <c r="B394" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="C394" s="7"/>
       <c r="D394" s="8"/>
       <c r="E394" s="11"/>
@@ -14551,7 +14575,9 @@
       <c r="A395" s="7">
         <v>10392</v>
       </c>
-      <c r="B395" s="7"/>
+      <c r="B395" s="7" t="s">
+        <v>707</v>
+      </c>
       <c r="C395" s="7"/>
       <c r="D395" s="8"/>
       <c r="E395" s="11"/>

--- a/data/zh-cn/events.xlsx
+++ b/data/zh-cn/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\lifeRestartLatest\data\zh-cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCA06EA-4BA0-408F-BB09-D85D8525CDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C17E9C-15E7-4205-A40E-8A87F0E5667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="547" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="721">
   <si>
     <t>$id</t>
   </si>
@@ -2236,6 +2236,18 @@
   </si>
   <si>
     <t>你在闭关突破的时候走火入魔，身体虚弱。</t>
+  </si>
+  <si>
+    <t>你闭关养伤，吃下很多天材地宝，受伤的神魂恢复了些许。</t>
+  </si>
+  <si>
+    <t>EVT?[10122,10392]</t>
+  </si>
+  <si>
+    <t>EVT?[10146,10392]</t>
+  </si>
+  <si>
+    <t>EVT?[10172,10392]</t>
   </si>
 </sst>
 </file>
@@ -2773,10 +2785,10 @@
   <dimension ref="A1:R601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N128" sqref="N128"/>
+      <selection pane="bottomRight" activeCell="N193" sqref="N193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
@@ -6684,7 +6696,7 @@
         <v>287</v>
       </c>
       <c r="N125" s="16" t="s">
-        <v>288</v>
+        <v>718</v>
       </c>
       <c r="O125" s="17"/>
       <c r="P125" s="17"/>
@@ -6716,7 +6728,7 @@
         <v>703</v>
       </c>
       <c r="N126" s="16" t="s">
-        <v>288</v>
+        <v>718</v>
       </c>
       <c r="O126" s="17" t="s">
         <v>704</v>
@@ -7490,7 +7502,7 @@
         <v>315</v>
       </c>
       <c r="N149" s="16" t="s">
-        <v>314</v>
+        <v>719</v>
       </c>
       <c r="O149" s="17"/>
       <c r="P149" s="17"/>
@@ -7522,7 +7534,7 @@
         <v>710</v>
       </c>
       <c r="N150" s="16" t="s">
-        <v>314</v>
+        <v>719</v>
       </c>
       <c r="O150" s="17" t="s">
         <v>711</v>
@@ -8358,7 +8370,7 @@
         <v>349</v>
       </c>
       <c r="N175" s="16" t="s">
-        <v>348</v>
+        <v>720</v>
       </c>
       <c r="O175" s="17"/>
       <c r="P175" s="17"/>
@@ -8390,7 +8402,7 @@
         <v>713</v>
       </c>
       <c r="N176" s="16" t="s">
-        <v>348</v>
+        <v>720</v>
       </c>
       <c r="O176" s="17" t="s">
         <v>714</v>
@@ -14560,13 +14572,17 @@
       <c r="F394" s="11"/>
       <c r="G394" s="11"/>
       <c r="H394" s="11"/>
-      <c r="I394" s="11"/>
+      <c r="I394" s="11">
+        <v>-10</v>
+      </c>
       <c r="J394" s="11"/>
       <c r="K394" s="11"/>
       <c r="L394" s="11"/>
       <c r="M394" s="16"/>
       <c r="N394" s="16"/>
-      <c r="O394" s="17"/>
+      <c r="O394" s="17">
+        <v>10393</v>
+      </c>
       <c r="P394" s="17"/>
       <c r="Q394" s="20"/>
       <c r="R394" s="20"/>
@@ -14599,16 +14615,22 @@
       <c r="A396" s="7">
         <v>10393</v>
       </c>
-      <c r="B396" s="7"/>
+      <c r="B396" s="7" t="s">
+        <v>717</v>
+      </c>
       <c r="C396" s="7"/>
       <c r="D396" s="8"/>
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
       <c r="G396" s="11"/>
-      <c r="H396" s="11"/>
+      <c r="H396" s="11">
+        <v>-5</v>
+      </c>
       <c r="I396" s="11"/>
       <c r="J396" s="11"/>
-      <c r="K396" s="11"/>
+      <c r="K396" s="11">
+        <v>10</v>
+      </c>
       <c r="L396" s="11"/>
       <c r="M396" s="16"/>
       <c r="N396" s="16"/>

--- a/data/zh-cn/events.xlsx
+++ b/data/zh-cn/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\lifeRestartLatest\data\zh-cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C17E9C-15E7-4205-A40E-8A87F0E5667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC4C6B9-B755-425E-9E76-23D18295D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="547" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="722">
   <si>
     <t>$id</t>
   </si>
@@ -2248,6 +2248,9 @@
   </si>
   <si>
     <t>EVT?[10172,10392]</t>
+  </si>
+  <si>
+    <t>INT&gt;0:10393</t>
   </si>
 </sst>
 </file>
@@ -2785,10 +2788,10 @@
   <dimension ref="A1:R601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N381" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N193" sqref="N193"/>
+      <selection pane="bottomRight" activeCell="O395" sqref="O395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
@@ -14580,8 +14583,8 @@
       <c r="L394" s="11"/>
       <c r="M394" s="16"/>
       <c r="N394" s="16"/>
-      <c r="O394" s="17">
-        <v>10393</v>
+      <c r="O394" s="17" t="s">
+        <v>721</v>
       </c>
       <c r="P394" s="17"/>
       <c r="Q394" s="20"/>
